--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.5416091391967</v>
+        <v>17.02141</v>
       </c>
       <c r="H2">
-        <v>14.5416091391967</v>
+        <v>51.06422999999999</v>
       </c>
       <c r="I2">
-        <v>0.5849593611935825</v>
+        <v>0.6180409958166109</v>
       </c>
       <c r="J2">
-        <v>0.5849593611935825</v>
+        <v>0.6180409958166109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.824762340896</v>
+        <v>37.09015533333334</v>
       </c>
       <c r="N2">
-        <v>29.824762340896</v>
+        <v>111.270466</v>
       </c>
       <c r="O2">
-        <v>0.5372727414612816</v>
+        <v>0.5716576577489302</v>
       </c>
       <c r="P2">
-        <v>0.5372727414612816</v>
+        <v>0.5716576577489302</v>
       </c>
       <c r="Q2">
-        <v>433.7000366307428</v>
+        <v>631.3267408923533</v>
       </c>
       <c r="R2">
-        <v>433.7000366307428</v>
+        <v>5681.940668031179</v>
       </c>
       <c r="S2">
-        <v>0.3142827196319161</v>
+        <v>0.3533078680613401</v>
       </c>
       <c r="T2">
-        <v>0.3142827196319161</v>
+        <v>0.3533078680613401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.5416091391967</v>
+        <v>17.02141</v>
       </c>
       <c r="H3">
-        <v>14.5416091391967</v>
+        <v>51.06422999999999</v>
       </c>
       <c r="I3">
-        <v>0.5849593611935825</v>
+        <v>0.6180409958166109</v>
       </c>
       <c r="J3">
-        <v>0.5849593611935825</v>
+        <v>0.6180409958166109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1228927926667</v>
+        <v>20.12511833333333</v>
       </c>
       <c r="N3">
-        <v>20.1228927926667</v>
+        <v>60.375355</v>
       </c>
       <c r="O3">
-        <v>0.3625001820055644</v>
+        <v>0.310181445856982</v>
       </c>
       <c r="P3">
-        <v>0.3625001820055644</v>
+        <v>0.310181445856982</v>
       </c>
       <c r="Q3">
-        <v>292.6192417409175</v>
+        <v>342.5578904501833</v>
       </c>
       <c r="R3">
-        <v>292.6192417409175</v>
+        <v>3083.02101405165</v>
       </c>
       <c r="S3">
-        <v>0.2120478748985323</v>
+        <v>0.1917048496812853</v>
       </c>
       <c r="T3">
-        <v>0.2120478748985323</v>
+        <v>0.1917048496812853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5416091391967</v>
+        <v>17.02141</v>
       </c>
       <c r="H4">
-        <v>14.5416091391967</v>
+        <v>51.06422999999999</v>
       </c>
       <c r="I4">
-        <v>0.5849593611935825</v>
+        <v>0.6180409958166109</v>
       </c>
       <c r="J4">
-        <v>0.5849593611935825</v>
+        <v>0.6180409958166109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.56374538859707</v>
+        <v>7.666487</v>
       </c>
       <c r="N4">
-        <v>5.56374538859707</v>
+        <v>22.999461</v>
       </c>
       <c r="O4">
-        <v>0.1002270765331539</v>
+        <v>0.1181608963940878</v>
       </c>
       <c r="P4">
-        <v>0.1002270765331539</v>
+        <v>0.1181608963940878</v>
       </c>
       <c r="Q4">
-        <v>80.90581079098665</v>
+        <v>130.49441848667</v>
       </c>
       <c r="R4">
-        <v>80.90581079098665</v>
+        <v>1174.44976638003</v>
       </c>
       <c r="S4">
-        <v>0.05862876666313404</v>
+        <v>0.0730282780739854</v>
       </c>
       <c r="T4">
-        <v>0.05862876666313404</v>
+        <v>0.07302827807398539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.726208738082921</v>
+        <v>8.84402</v>
       </c>
       <c r="H5">
-        <v>8.726208738082921</v>
+        <v>26.53206</v>
       </c>
       <c r="I5">
-        <v>0.3510256286088585</v>
+        <v>0.3211230402077163</v>
       </c>
       <c r="J5">
-        <v>0.3510256286088585</v>
+        <v>0.3211230402077163</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.824762340896</v>
+        <v>37.09015533333334</v>
       </c>
       <c r="N5">
-        <v>29.824762340896</v>
+        <v>111.270466</v>
       </c>
       <c r="O5">
-        <v>0.5372727414612816</v>
+        <v>0.5716576577489302</v>
       </c>
       <c r="P5">
-        <v>0.5372727414612816</v>
+        <v>0.5716576577489302</v>
       </c>
       <c r="Q5">
-        <v>260.2571017503731</v>
+        <v>328.0260755711067</v>
       </c>
       <c r="R5">
-        <v>260.2571017503731</v>
+        <v>2952.23468013996</v>
       </c>
       <c r="S5">
-        <v>0.1885965018058511</v>
+        <v>0.1835724450143586</v>
       </c>
       <c r="T5">
-        <v>0.1885965018058511</v>
+        <v>0.1835724450143586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.726208738082921</v>
+        <v>8.84402</v>
       </c>
       <c r="H6">
-        <v>8.726208738082921</v>
+        <v>26.53206</v>
       </c>
       <c r="I6">
-        <v>0.3510256286088585</v>
+        <v>0.3211230402077163</v>
       </c>
       <c r="J6">
-        <v>0.3510256286088585</v>
+        <v>0.3211230402077163</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.1228927926667</v>
+        <v>20.12511833333333</v>
       </c>
       <c r="N6">
-        <v>20.1228927926667</v>
+        <v>60.375355</v>
       </c>
       <c r="O6">
-        <v>0.3625001820055644</v>
+        <v>0.310181445856982</v>
       </c>
       <c r="P6">
-        <v>0.3625001820055644</v>
+        <v>0.310181445856982</v>
       </c>
       <c r="Q6">
-        <v>175.596562922874</v>
+        <v>177.9869490423667</v>
       </c>
       <c r="R6">
-        <v>175.596562922874</v>
+        <v>1601.8825413813</v>
       </c>
       <c r="S6">
-        <v>0.1272468542593289</v>
+        <v>0.09960640890961921</v>
       </c>
       <c r="T6">
-        <v>0.1272468542593289</v>
+        <v>0.09960640890961921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.726208738082921</v>
+        <v>8.84402</v>
       </c>
       <c r="H7">
-        <v>8.726208738082921</v>
+        <v>26.53206</v>
       </c>
       <c r="I7">
-        <v>0.3510256286088585</v>
+        <v>0.3211230402077163</v>
       </c>
       <c r="J7">
-        <v>0.3510256286088585</v>
+        <v>0.3211230402077163</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.56374538859707</v>
+        <v>7.666487</v>
       </c>
       <c r="N7">
-        <v>5.56374538859707</v>
+        <v>22.999461</v>
       </c>
       <c r="O7">
-        <v>0.1002270765331539</v>
+        <v>0.1181608963940878</v>
       </c>
       <c r="P7">
-        <v>0.1002270765331539</v>
+        <v>0.1181608963940878</v>
       </c>
       <c r="Q7">
-        <v>48.55040362644431</v>
+        <v>67.80256435774001</v>
       </c>
       <c r="R7">
-        <v>48.55040362644431</v>
+        <v>610.22307921966</v>
       </c>
       <c r="S7">
-        <v>0.03518227254367853</v>
+        <v>0.03794418628373845</v>
       </c>
       <c r="T7">
-        <v>0.03518227254367853</v>
+        <v>0.03794418628373845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5913605612451</v>
+        <v>1.675477666666667</v>
       </c>
       <c r="H8">
-        <v>1.5913605612451</v>
+        <v>5.026433</v>
       </c>
       <c r="I8">
-        <v>0.06401501019755905</v>
+        <v>0.06083596397567289</v>
       </c>
       <c r="J8">
-        <v>0.06401501019755905</v>
+        <v>0.0608359639756729</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.824762340896</v>
+        <v>37.09015533333334</v>
       </c>
       <c r="N8">
-        <v>29.824762340896</v>
+        <v>111.270466</v>
       </c>
       <c r="O8">
-        <v>0.5372727414612816</v>
+        <v>0.5716576577489302</v>
       </c>
       <c r="P8">
-        <v>0.5372727414612816</v>
+        <v>0.5716576577489302</v>
       </c>
       <c r="Q8">
-        <v>47.46195053780998</v>
+        <v>62.14372691419756</v>
       </c>
       <c r="R8">
-        <v>47.46195053780998</v>
+        <v>559.2935422277779</v>
       </c>
       <c r="S8">
-        <v>0.03439352002351444</v>
+        <v>0.03477734467323146</v>
       </c>
       <c r="T8">
-        <v>0.03439352002351444</v>
+        <v>0.03477734467323147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5913605612451</v>
+        <v>1.675477666666667</v>
       </c>
       <c r="H9">
-        <v>1.5913605612451</v>
+        <v>5.026433</v>
       </c>
       <c r="I9">
-        <v>0.06401501019755905</v>
+        <v>0.06083596397567289</v>
       </c>
       <c r="J9">
-        <v>0.06401501019755905</v>
+        <v>0.0608359639756729</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1228927926667</v>
+        <v>20.12511833333333</v>
       </c>
       <c r="N9">
-        <v>20.1228927926667</v>
+        <v>60.375355</v>
       </c>
       <c r="O9">
-        <v>0.3625001820055644</v>
+        <v>0.310181445856982</v>
       </c>
       <c r="P9">
-        <v>0.3625001820055644</v>
+        <v>0.310181445856982</v>
       </c>
       <c r="Q9">
-        <v>32.02277796841306</v>
+        <v>33.71918630652389</v>
       </c>
       <c r="R9">
-        <v>32.02277796841306</v>
+        <v>303.472676758715</v>
       </c>
       <c r="S9">
-        <v>0.02320545284770321</v>
+        <v>0.01887018726607749</v>
       </c>
       <c r="T9">
-        <v>0.02320545284770321</v>
+        <v>0.01887018726607749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.5913605612451</v>
+        <v>1.675477666666667</v>
       </c>
       <c r="H10">
-        <v>1.5913605612451</v>
+        <v>5.026433</v>
       </c>
       <c r="I10">
-        <v>0.06401501019755905</v>
+        <v>0.06083596397567289</v>
       </c>
       <c r="J10">
-        <v>0.06401501019755905</v>
+        <v>0.0608359639756729</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.56374538859707</v>
+        <v>7.666487</v>
       </c>
       <c r="N10">
-        <v>5.56374538859707</v>
+        <v>22.999461</v>
       </c>
       <c r="O10">
-        <v>0.1002270765331539</v>
+        <v>0.1181608963940878</v>
       </c>
       <c r="P10">
-        <v>0.1002270765331539</v>
+        <v>0.1181608963940878</v>
       </c>
       <c r="Q10">
-        <v>8.853924984222671</v>
+        <v>12.84502775029033</v>
       </c>
       <c r="R10">
-        <v>8.853924984222671</v>
+        <v>115.605249752613</v>
       </c>
       <c r="S10">
-        <v>0.006416037326341381</v>
+        <v>0.007188432036363941</v>
       </c>
       <c r="T10">
-        <v>0.006416037326341381</v>
+        <v>0.007188432036363941</v>
       </c>
     </row>
   </sheetData>
